--- a/proteccion_leyes/Leyes.xlsx
+++ b/proteccion_leyes/Leyes.xlsx
@@ -46,11 +46,7 @@
     <t>Artículo 25</t>
   </si>
   <si>
-    <t>Establece que corresponde al Estado la rectoría del desarrollo nacional para garantizar que éste sea integral y sustentable,
-que fortalezca la Soberanía de la Nación y su régimen democrático y que, mediante la competitividad, el
-fomento del crecimiento económico y el empleo y una más justa distribución del ingreso y la riqueza, permita
-el pleno ejercicio de la libertad y la dignidad de los individuos, grupos y clases sociales, cuya seguridad
-protege la propia Constitución.</t>
+    <t>Establece que corresponde al Estado la rectoría del desarrollo nacional para garantizar que éste sea integral y sustentable.</t>
   </si>
   <si>
     <t>http://www.ordenjuridico.gob.mx/Constitucion/articulos/25.pdf</t>
